--- a/PQ_Challenge_198.xlsx
+++ b/PQ_Challenge_198.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B089BC1E-C55D-449B-8FD5-12D24F3D12B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94F2AAE6-77AB-406C-94ED-0DFCB49E4857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
@@ -224,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -242,6 +265,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,6 +590,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B24DB69-37F0-437F-BEE8-3E9C8D13F523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1196340" y="833120"/>
+          <a:ext cx="755650" cy="542290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
+            <a:t>RESULT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Left 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28024CD-7071-4712-BA35-8087221618D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1043940" y="365760"/>
+          <a:ext cx="857250" cy="499110"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050" b="1"/>
+            <a:t>PROBLEM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -827,12 +988,44 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="721" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{059815CC-8480-41A1-AFCB-A3A08706FDFF}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{96426F55-7762-49CC-87DB-965693E874D7}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,4 +1382,714 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C3FAC0-3B5D-4B70-A7B8-75012C44E15A}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="12" t="str" cm="1">
+        <f t="array" ref="M1:O1">D1:F1</f>
+        <v>Date</v>
+      </c>
+      <c r="N1" s="13" t="str">
+        <v>Value</v>
+      </c>
+      <c r="O1" s="14" t="str">
+        <v>Running Total</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>44562</v>
+      </c>
+      <c r="B2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="15">
+        <v>44562</v>
+      </c>
+      <c r="E2" s="8">
+        <v>50</v>
+      </c>
+      <c r="F2" s="9">
+        <v>60</v>
+      </c>
+      <c r="I2" t="str" cm="1">
+        <f t="array" ref="I2:I9">INDEX(TEXT(_xlfn.SEQUENCE(8)*29,"mmm"),_xlfn.UNIQUE(MONTH($A$2:$A$20)))</f>
+        <v>Jan</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">MAX(_xlfn._xlws.FILTER($B$2:$B$20,TEXT($A$2:$A$20,"mmm")=I2))</f>
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <f>SUM(J2,K1)</f>
+        <v>60</v>
+      </c>
+      <c r="M2" s="15" cm="1">
+        <f t="array" ref="M2:M20">D2:D20</f>
+        <v>44562</v>
+      </c>
+      <c r="N2" s="8" cm="1">
+        <f t="array" ref="N2:N20">B2:B20</f>
+        <v>50</v>
+      </c>
+      <c r="O2" s="9" cm="1">
+        <f t="array" ref="O2:O20">_xlfn.XLOOKUP(TEXT(_xlfn.ANCHORARRAY(M2),"mmm"),_xlfn.ANCHORARRAY($I$2),$K$2:$K$9)</f>
+        <v>60</v>
+      </c>
+      <c r="Q2" s="17" t="b" cm="1">
+        <f t="array" ref="Q2:Q20">_xlfn.ANCHORARRAY(O2)=F2:F20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>44563</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15">
+        <v>44563</v>
+      </c>
+      <c r="E3" s="8">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9">
+        <v>60</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">MAX(_xlfn._xlws.FILTER($B$2:$B$20,TEXT($A$2:$A$20,"mmm")=I3))</f>
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="0">SUM(J3,K2)</f>
+        <v>130</v>
+      </c>
+      <c r="M3" s="15">
+        <v>44563</v>
+      </c>
+      <c r="N3" s="8">
+        <v>20</v>
+      </c>
+      <c r="O3" s="9">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>44571</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15">
+        <v>44571</v>
+      </c>
+      <c r="E4" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9">
+        <v>60</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">MAX(_xlfn._xlws.FILTER($B$2:$B$20,TEXT($A$2:$A$20,"mmm")=I4))</f>
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="M4" s="15">
+        <v>44571</v>
+      </c>
+      <c r="N4" s="8">
+        <v>10</v>
+      </c>
+      <c r="O4" s="9">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>44573</v>
+      </c>
+      <c r="B5" s="2">
+        <v>60</v>
+      </c>
+      <c r="D5" s="15">
+        <v>44573</v>
+      </c>
+      <c r="E5" s="8">
+        <v>60</v>
+      </c>
+      <c r="F5" s="9">
+        <v>60</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Apr</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">MAX(_xlfn._xlws.FILTER($B$2:$B$20,TEXT($A$2:$A$20,"mmm")=I5))</f>
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="M5" s="15">
+        <v>44573</v>
+      </c>
+      <c r="N5" s="8">
+        <v>60</v>
+      </c>
+      <c r="O5" s="9">
+        <v>60</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>44593</v>
+      </c>
+      <c r="B6" s="2">
+        <v>40</v>
+      </c>
+      <c r="D6" s="15">
+        <v>44593</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="9">
+        <v>130</v>
+      </c>
+      <c r="I6" t="str">
+        <v>May</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">MAX(_xlfn._xlws.FILTER($B$2:$B$20,TEXT($A$2:$A$20,"mmm")=I6))</f>
+        <v>70</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="M6" s="15">
+        <v>44593</v>
+      </c>
+      <c r="N6" s="8">
+        <v>40</v>
+      </c>
+      <c r="O6" s="9">
+        <v>130</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>44597</v>
+      </c>
+      <c r="B7" s="2">
+        <v>70</v>
+      </c>
+      <c r="D7" s="15">
+        <v>44597</v>
+      </c>
+      <c r="E7" s="8">
+        <v>70</v>
+      </c>
+      <c r="F7" s="9">
+        <v>130</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Jun</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">MAX(_xlfn._xlws.FILTER($B$2:$B$20,TEXT($A$2:$A$20,"mmm")=I7))</f>
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="M7" s="15">
+        <v>44597</v>
+      </c>
+      <c r="N7" s="8">
+        <v>70</v>
+      </c>
+      <c r="O7" s="9">
+        <v>130</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>44600</v>
+      </c>
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="15">
+        <v>44600</v>
+      </c>
+      <c r="E8" s="8">
+        <v>50</v>
+      </c>
+      <c r="F8" s="9">
+        <v>130</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Jul</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">MAX(_xlfn._xlws.FILTER($B$2:$B$20,TEXT($A$2:$A$20,"mmm")=I8))</f>
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="M8" s="15">
+        <v>44600</v>
+      </c>
+      <c r="N8" s="8">
+        <v>50</v>
+      </c>
+      <c r="O8" s="9">
+        <v>130</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>44616</v>
+      </c>
+      <c r="B9" s="2">
+        <v>60</v>
+      </c>
+      <c r="D9" s="15">
+        <v>44616</v>
+      </c>
+      <c r="E9" s="8">
+        <v>60</v>
+      </c>
+      <c r="F9" s="9">
+        <v>130</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Aug</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">MAX(_xlfn._xlws.FILTER($B$2:$B$20,TEXT($A$2:$A$20,"mmm")=I9))</f>
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="M9" s="15">
+        <v>44616</v>
+      </c>
+      <c r="N9" s="8">
+        <v>60</v>
+      </c>
+      <c r="O9" s="9">
+        <v>130</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>44621</v>
+      </c>
+      <c r="B10" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" s="15">
+        <v>44621</v>
+      </c>
+      <c r="E10" s="8">
+        <v>40</v>
+      </c>
+      <c r="F10" s="9">
+        <v>170</v>
+      </c>
+      <c r="M10" s="15">
+        <v>44621</v>
+      </c>
+      <c r="N10" s="8">
+        <v>40</v>
+      </c>
+      <c r="O10" s="9">
+        <v>170</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>44646</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15">
+        <v>44646</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <v>170</v>
+      </c>
+      <c r="M11" s="15">
+        <v>44646</v>
+      </c>
+      <c r="N11" s="8">
+        <v>10</v>
+      </c>
+      <c r="O11" s="9">
+        <v>170</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>44671</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20</v>
+      </c>
+      <c r="D12" s="15">
+        <v>44671</v>
+      </c>
+      <c r="E12" s="8">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9">
+        <v>190</v>
+      </c>
+      <c r="M12" s="15">
+        <v>44671</v>
+      </c>
+      <c r="N12" s="8">
+        <v>20</v>
+      </c>
+      <c r="O12" s="9">
+        <v>190</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>44698</v>
+      </c>
+      <c r="B13" s="2">
+        <v>70</v>
+      </c>
+      <c r="D13" s="15">
+        <v>44698</v>
+      </c>
+      <c r="E13" s="8">
+        <v>70</v>
+      </c>
+      <c r="F13" s="9">
+        <v>260</v>
+      </c>
+      <c r="M13" s="15">
+        <v>44698</v>
+      </c>
+      <c r="N13" s="8">
+        <v>70</v>
+      </c>
+      <c r="O13" s="9">
+        <v>260</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>44712</v>
+      </c>
+      <c r="B14" s="2">
+        <v>50</v>
+      </c>
+      <c r="D14" s="15">
+        <v>44712</v>
+      </c>
+      <c r="E14" s="8">
+        <v>50</v>
+      </c>
+      <c r="F14" s="9">
+        <v>260</v>
+      </c>
+      <c r="M14" s="15">
+        <v>44712</v>
+      </c>
+      <c r="N14" s="8">
+        <v>50</v>
+      </c>
+      <c r="O14" s="9">
+        <v>260</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>44722</v>
+      </c>
+      <c r="B15" s="2">
+        <v>80</v>
+      </c>
+      <c r="D15" s="15">
+        <v>44722</v>
+      </c>
+      <c r="E15" s="8">
+        <v>80</v>
+      </c>
+      <c r="F15" s="9">
+        <v>340</v>
+      </c>
+      <c r="M15" s="15">
+        <v>44722</v>
+      </c>
+      <c r="N15" s="8">
+        <v>80</v>
+      </c>
+      <c r="O15" s="9">
+        <v>340</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>44739</v>
+      </c>
+      <c r="B16" s="2">
+        <v>30</v>
+      </c>
+      <c r="D16" s="15">
+        <v>44739</v>
+      </c>
+      <c r="E16" s="8">
+        <v>30</v>
+      </c>
+      <c r="F16" s="9">
+        <v>340</v>
+      </c>
+      <c r="M16" s="15">
+        <v>44739</v>
+      </c>
+      <c r="N16" s="8">
+        <v>30</v>
+      </c>
+      <c r="O16" s="9">
+        <v>340</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>44751</v>
+      </c>
+      <c r="B17" s="2">
+        <v>40</v>
+      </c>
+      <c r="D17" s="15">
+        <v>44751</v>
+      </c>
+      <c r="E17" s="8">
+        <v>40</v>
+      </c>
+      <c r="F17" s="9">
+        <v>380</v>
+      </c>
+      <c r="M17" s="15">
+        <v>44751</v>
+      </c>
+      <c r="N17" s="8">
+        <v>40</v>
+      </c>
+      <c r="O17" s="9">
+        <v>380</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>44754</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18" s="15">
+        <v>44754</v>
+      </c>
+      <c r="E18" s="8">
+        <v>20</v>
+      </c>
+      <c r="F18" s="9">
+        <v>380</v>
+      </c>
+      <c r="M18" s="15">
+        <v>44754</v>
+      </c>
+      <c r="N18" s="8">
+        <v>20</v>
+      </c>
+      <c r="O18" s="9">
+        <v>380</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>44781</v>
+      </c>
+      <c r="B19" s="2">
+        <v>50</v>
+      </c>
+      <c r="D19" s="15">
+        <v>44781</v>
+      </c>
+      <c r="E19" s="8">
+        <v>50</v>
+      </c>
+      <c r="F19" s="9">
+        <v>430</v>
+      </c>
+      <c r="M19" s="15">
+        <v>44781</v>
+      </c>
+      <c r="N19" s="8">
+        <v>50</v>
+      </c>
+      <c r="O19" s="9">
+        <v>430</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>44803</v>
+      </c>
+      <c r="B20" s="3">
+        <v>50</v>
+      </c>
+      <c r="D20" s="16">
+        <v>44803</v>
+      </c>
+      <c r="E20" s="10">
+        <v>50</v>
+      </c>
+      <c r="F20" s="11">
+        <v>430</v>
+      </c>
+      <c r="M20" s="16">
+        <v>44803</v>
+      </c>
+      <c r="N20" s="10">
+        <v>50</v>
+      </c>
+      <c r="O20" s="11">
+        <v>430</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96426F55-7762-49CC-87DB-965693E874D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>